--- a/UK_regions_wales_removed.xlsx
+++ b/UK_regions_wales_removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\regional_COVID_geoplots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27E62E-C006-44FE-9D2F-310E0452B836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76D5EA-E7D7-4927-88AE-822F860477BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F03F0D0A-3D63-48B5-983C-F1652F2C06E6}"/>
   </bookViews>
